--- a/800-Examples-list.xlsx
+++ b/800-Examples-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dayanand\FlatHTML\BOOK#1-800-Examples-In-Web-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B828519-779D-4597-98D3-AC49B47F502D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C958AC-9D64-450E-9159-A53C88845C4F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{1F7C5B6B-25A6-4503-8A73-26617F98C6A8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="Fun-stats" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>EXAMPLE#</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Javascript  Game - shift the box</t>
   </si>
   <si>
-    <t>JavaScript Game - Bouncy ball</t>
-  </si>
-  <si>
     <t>JavaScript Basic DOM</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>Example - Merging output of 2 XML files into 1 table</t>
   </si>
   <si>
-    <t>(Run via Localhost, code in xampp/htdocs/FLATHTML)</t>
-  </si>
-  <si>
     <t>HTML/CSS</t>
   </si>
   <si>
@@ -233,6 +227,18 @@
   </si>
   <si>
     <t>php/XML/JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript Game - Tic Tac Toe</t>
+  </si>
+  <si>
+    <t>Example : Merge two XML files into third XML file</t>
+  </si>
+  <si>
+    <t>JSON/JavaScript</t>
+  </si>
+  <si>
+    <t>Example : Read External JSON File and display the output</t>
   </si>
 </sst>
 </file>
@@ -783,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1616827A-C739-4FD4-ABBF-17C9293AE5EF}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -827,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -835,11 +841,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+        <f t="shared" ref="A4:A53" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -851,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -863,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -875,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -887,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -899,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -911,7 +917,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -923,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -947,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -959,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -971,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -983,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -995,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
@@ -1007,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -1019,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
@@ -1031,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
@@ -1043,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -1055,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -1130,7 +1136,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,10 +1145,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1151,10 +1157,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,7 +1172,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,7 +1184,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,10 +1205,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,10 +1217,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1229,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,10 +1238,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,10 +1250,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,10 +1262,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,10 +1274,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,10 +1286,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,10 +1298,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,10 +1310,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,10 +1322,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,10 +1334,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,14 +1346,12 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -1355,14 +1359,12 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -1370,14 +1372,12 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -1385,14 +1385,12 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -1400,14 +1398,12 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -1415,14 +1411,38 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/800-Examples-list.xlsx
+++ b/800-Examples-list.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dayanand\FlatHTML\BOOK#1-800-Examples-In-Web-Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FLATHTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C958AC-9D64-450E-9159-A53C88845C4F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C560651-6377-433A-97FB-4C466D22D11B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{1F7C5B6B-25A6-4503-8A73-26617F98C6A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="list" sheetId="1" r:id="rId1"/>
-    <sheet name="Fun-stats" sheetId="2" r:id="rId2"/>
+    <sheet name="code-list" sheetId="1" r:id="rId1"/>
+    <sheet name="vacation" sheetId="3" r:id="rId2"/>
+    <sheet name="Fun-stats" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>EXAMPLE#</t>
   </si>
@@ -235,10 +236,79 @@
     <t>Example : Merge two XML files into third XML file</t>
   </si>
   <si>
-    <t>JSON/JavaScript</t>
-  </si>
-  <si>
     <t>Example : Read External JSON File and display the output</t>
+  </si>
+  <si>
+    <t>JavaScript / JSON</t>
+  </si>
+  <si>
+    <t>Tool-External</t>
+  </si>
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Pureto Rico</t>
+  </si>
+  <si>
+    <t>2017-April</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>2017-June</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Vegas</t>
+  </si>
+  <si>
+    <t>2018-Feb</t>
+  </si>
+  <si>
+    <t>2018-Apr</t>
+  </si>
+  <si>
+    <t>Florida-Disney</t>
+  </si>
+  <si>
+    <t>Florida-Satellite Beach</t>
+  </si>
+  <si>
+    <t>2018-Jun</t>
+  </si>
+  <si>
+    <t>2017-Aug</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>2018-Aug</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>2018-Dec</t>
+  </si>
+  <si>
+    <t>Convert Excel to JSON</t>
+  </si>
+  <si>
+    <t>JavaScript/PHP</t>
+  </si>
+  <si>
+    <t>Utility that displays suggestions while a suer is typing his search query</t>
   </si>
 </sst>
 </file>
@@ -283,7 +353,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -315,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -337,6 +413,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,11 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1616827A-C739-4FD4-ABBF-17C9293AE5EF}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +923,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A53" si="0">A3+1</f>
+        <f t="shared" ref="A4:A55" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1437,12 +1519,36 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,6 +1557,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D3199C-04AC-4D53-ADDC-F824F79FEB92}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE15287-07B9-408A-8FE4-9A6C64329429}">
   <dimension ref="B3:B26"/>
   <sheetViews>

--- a/800-Examples-list.xlsx
+++ b/800-Examples-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FLATHTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C560651-6377-433A-97FB-4C466D22D11B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47EC40-3F86-4ED0-A4BA-A963C73030DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{1F7C5B6B-25A6-4503-8A73-26617F98C6A8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>EXAMPLE#</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>Utility that displays suggestions while a suer is typing his search query</t>
+  </si>
+  <si>
+    <t>php/XML</t>
+  </si>
+  <si>
+    <t>Utility that deletes XML record</t>
+  </si>
+  <si>
+    <t>JavaScript/JSON</t>
+  </si>
+  <si>
+    <t>Add Checkbox to a dynamically created table</t>
   </si>
 </sst>
 </file>
@@ -871,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1616827A-C739-4FD4-ABBF-17C9293AE5EF}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +935,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A55" si="0">A3+1</f>
+        <f t="shared" ref="A4:A57" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1548,6 +1560,30 @@
       </c>
       <c r="C55" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1631,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A9" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1607,7 +1643,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1619,7 +1655,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1631,7 +1667,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1643,7 +1679,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1655,7 +1691,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1667,7 +1703,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
